--- a/pulmuone_products_with_tag.xlsx
+++ b/pulmuone_products_with_tag.xlsx
@@ -866,17 +866,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>목초 촉촉란 10구 (500g)</t>
+          <t>한끼연두부 2종 12EA (참깨흑임자+오리엔탈유자)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8,680</t>
+          <t>12,510</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -894,17 +894,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>두부봉 3종 (야채쏙+해물쏙+치즈쏙) (총 3개)</t>
+          <t>목초 촉촉란 10구 (500g)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5,280</t>
+          <t>8,680</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>22%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -922,17 +922,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>한끼연두부 2종 12EA (참깨흑임자+오리엔탈유자)</t>
+          <t>옛맛 두부 (340g)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12,510</t>
+          <t>4,500</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>23%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -950,17 +950,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>옛맛 두부 (340g)</t>
+          <t>두부봉 3종 (야채쏙+해물쏙+치즈쏙) (총 3개)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4,500</t>
+          <t>5,280</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>BEST</t>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -1034,17 +1034,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>50% 당을 낮춘 새콤달콤 유부초밥 (310g)</t>
+          <t>국산콩 진한 콩국물 (350gx1봉)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4,980</t>
+          <t>2,610</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>16%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1062,17 +1062,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>국산콩 진한콩국물 (320gx2EA)</t>
+          <t>무농약 새오리알태 콩나물 (300g)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4,400</t>
+          <t>2,700</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1090,22 +1090,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>롤 유부초밥 (280gX2봉)</t>
+          <t>50% 당을 낮춘 새콤달콤 유부초밥 (310g)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>11,160</t>
+          <t>4,980</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>16%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>BEST</t>
         </is>
       </c>
     </row>
@@ -1118,17 +1118,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>국산콩 진한 콩국물 (350gx1봉)</t>
+          <t>김참깨 순생나또 8입세트 (43.5gx8입)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2,610</t>
+          <t>8,200</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1146,17 +1146,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>김참깨 순생나또 8입세트 (43.5gx8입)</t>
+          <t>국산콩 진한콩국물 (320gx2EA)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>8,200</t>
+          <t>4,400</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1174,12 +1174,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>한끼연두부 오리엔탈유자 (118gx2EA)</t>
+          <t>매일아침 순생나또 (49.5gx2팩)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2,780</t>
+          <t>2,900</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1202,17 +1202,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[풀무원지구식단] 두부면 2종 SET (총4인분)</t>
+          <t>한끼연두부 오리엔탈유자 (118gx2EA)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>9,450</t>
+          <t>2,780</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1230,22 +1230,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>무농약 새오리알태 콩나물 (300g)</t>
+          <t>롤 유부초밥 (280gX2봉)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2,700</t>
+          <t>11,160</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>BEST</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1258,17 +1258,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>한끼 계란 연두부 2개입 (236g)</t>
+          <t>[풀무원지구식단] 두부면 2종 SET (총4인분)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3,280</t>
+          <t>9,450</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1286,17 +1286,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>찌개두부+부침두부 2종 (각 1개씩, 총 2개)</t>
+          <t>한끼 계란 연두부 2개입 (236g)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2,640</t>
+          <t>3,280</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1314,17 +1314,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>목초달걀 무항생제 1+등급 특란 (15구) (900g)</t>
+          <t>찌개두부+부침두부 2종 (각 1개씩, 총 2개)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>9,480</t>
+          <t>2,640</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1342,12 +1342,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[냉동] 국산콩 냉동나또 (2팩X28입)</t>
+          <t>[식물성지구식단] 콩단백 숯불직화구이 (500g)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>59,920</t>
+          <t>13,000</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1370,17 +1370,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>동물복지 깐 계란 (500g)</t>
+          <t>쫄깃한 훈제 메추리알 (25gX5팩)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5,230</t>
+          <t>8,400</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>매일아침 순생나또 (49.5gx2팩)</t>
+          <t>목초달걀 무항생제 1+등급 특란 (15구) (900g)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2,900</t>
+          <t>9,480</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[식물성지구식단] 콩단백 숯불직화구이 (500g)</t>
+          <t>[냉동] 국산콩 냉동나또 (2팩X28입)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>13,000</t>
+          <t>59,920</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>메추리알 장조림 2종 4봉 (기본 2봉+소고기 2봉)</t>
+          <t>동물복지 깐 계란 (500g)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>11,120</t>
+          <t>5,230</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>BEST</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1482,22 +1482,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>쫄깃한 훈제 메추리알 (25gX5팩)</t>
+          <t>메추리알 장조림 2종 4봉 (기본 2봉+소고기 2봉)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>8,400</t>
+          <t>11,120</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>BEST</t>
         </is>
       </c>
     </row>
@@ -1510,17 +1510,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>국산콩 무농약 콩나물 (어린이용) (200g)</t>
+          <t>[풀무원지구식단] 두부면 얇은면 (100g)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2,100</t>
+          <t>2,550</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1538,12 +1538,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>롤 유부초밥 2~3인분 (280g)</t>
+          <t>매일아침 순생나또 12입세트 (594g)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6,980</t>
+          <t>11,300</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1566,22 +1566,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[풀무원지구식단] 두부면 얇은면 (100g)</t>
+          <t>[풀무원지구식단] 더 넓은 두부면 (100g)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2,550</t>
+          <t>2,500</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -1594,17 +1594,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>국산콩 수제두부 (340g)</t>
+          <t>국산콩 무농약 콩나물 (어린이용) (200g)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3,840</t>
+          <t>2,100</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1622,12 +1622,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>매일아침 순생나또 12입세트 (594g)</t>
+          <t>고소한 유부초밥 4인분 (330g)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>11,300</t>
+          <t>5,680</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1650,17 +1650,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[풀무원지구식단] 더 넓은 두부면 (100g)</t>
+          <t>유기농 콩 100% 연두부 (150gx2EA)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2,500</t>
+          <t>2,880</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1678,17 +1678,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>고소한 유부초밥 4인분 (330g)</t>
+          <t>한끼연두부 오리엔탈유자 (2팩X5개)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5,680</t>
+          <t>10,950</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>21%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1706,22 +1706,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>유기농 콩 100% 연두부 (150gx2EA)</t>
+          <t>롤 유부초밥 2~3인분 (280g)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2,880</t>
+          <t>6,980</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1734,17 +1734,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>한끼연두부 오리엔탈유자 (2팩X5개)</t>
+          <t>쫄깃한 훈제 메추리알 (25g)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10,950</t>
+          <t>2,100</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1762,17 +1762,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>특제대파간장나또 8입 (346g)</t>
+          <t>국산콩 수제두부 (340g)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>8,980</t>
+          <t>3,840</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1790,17 +1790,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>쫄깃한 훈제 메추리알 (25g)</t>
+          <t>큰 네모유부 (395g)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2,100</t>
+          <t>5,580</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>꼬마나또 3개입 (버터간장소스) (29.9gx3팩)</t>
+          <t>특제대파간장나또 8입 (346g)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3,680</t>
+          <t>8,980</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1846,12 +1846,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>칼슘연두부 (80gx6EA)</t>
+          <t>한끼계란연두부 2입X5팩 (총 10EA)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5,700</t>
+          <t>16,400</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1874,17 +1874,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>큰 네모유부 (395g)</t>
+          <t>꼬마나또 3개입(김조림 간장소스) (29.9gx3팩)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5,580</t>
+          <t>3,680</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -1902,17 +1902,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>꼬마 유부초밥 2인분 (145.5g)</t>
+          <t>[풀무원지구식단] 두부면 넓은면 (100g)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2,480</t>
+          <t>2,550</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>28%</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -1930,12 +1930,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>한끼계란연두부 2입X5팩 (총 10EA)</t>
+          <t>칼슘연두부 (80gx6EA)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>16,400</t>
+          <t>5,700</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1958,17 +1958,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>꼬마나또 3개입(김조림 간장소스) (29.9gx3팩)</t>
+          <t>꼬마 유부초밥 2인분 (145.5g)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3,680</t>
+          <t>2,480</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>28%</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2014,17 +2014,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[생산직송] 국산콩 생나또 세트 (2팩x12입)</t>
+          <t>특등급 국산콩 무농약 콩나물 (1kg)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>44,400</t>
+          <t>6,220</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2042,12 +2042,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>[식물성지구식단] 두부텐더 마일드 (1kg)</t>
+          <t>동물복지 목초란 (15구) (780g)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>16,500</t>
+          <t>9,980</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2070,17 +2070,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>소가 아삭숙주 (350g)</t>
+          <t>한끼몽글순두부 맑은순두부탕 (269g)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1,900</t>
+          <t>3,450</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2098,12 +2098,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>새콤달콤 국산콩 두부로 만든 유부초밥 4인분 (330g)</t>
+          <t>[생산직송] 국산콩 생나또 세트 (2팩x12입)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>6,980</t>
+          <t>44,400</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2126,22 +2126,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>동물복지 목초란 (15구) (780g)</t>
+          <t>두부 3종 순부찌 (순두부, 부침두부, 찌개두부)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>9,980</t>
+          <t>5,140</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>23%</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -2154,17 +2154,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>깐 메추리알 유정란 (190g)</t>
+          <t>꼬마나또 3개입 (버터간장소스) (29.9gx3팩)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3,510</t>
+          <t>3,680</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2182,17 +2182,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>특등급 국산콩 무농약 콩나물 (1kg)</t>
+          <t>새콤달콤 국산콩 두부로 만든 유부초밥 4인분 (330g)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>6,220</t>
+          <t>6,980</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2210,12 +2210,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>동물복지 구운란 (2구)</t>
+          <t>[식물성지구식단] 두부텐더 마일드 (1kg)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2,600</t>
+          <t>16,500</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2238,17 +2238,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>뽀로로 키즈 두부봉 치즈 (28gx18EA)</t>
+          <t>소고기 메추리알 유정란 장조림 (125g)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>10,010</t>
+          <t>3,980</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2266,17 +2266,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[풀무원지구식단] 두부면 넓은면 (100g)</t>
+          <t>동물복지 유정란 (10구) (520g)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2,550</t>
+          <t>8,980</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2294,22 +2294,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>두부 3종 순부찌 (순두부, 부침두부, 찌개두부)</t>
+          <t>깐 메추리알 유정란 (190g)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5,140</t>
+          <t>3,510</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>23%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2322,17 +2322,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>한끼몽글순두부 맑은순두부탕 (269g)</t>
+          <t>야채쏙 두부봉 (180g)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3,450</t>
+          <t>1,990</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>13%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2350,17 +2350,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>야채쏙 두부봉 (180g)</t>
+          <t>뽀로로 키즈 두부봉 치즈 (28gx18EA)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1,990</t>
+          <t>10,010</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2378,17 +2378,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>몽글몽글 옛 순두부 (450gx4개)</t>
+          <t>치즈쏙 두부봉 (180g)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>9,400</t>
+          <t>2,280</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2406,22 +2406,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>고소한 콩국수 set (8인분, 콩국물+생소면)</t>
+          <t>[산지직송] 갓 낳은 Cage Free 동물복지 유정란 (30입)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>17,980</t>
+          <t>24,900</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>BEST</t>
         </is>
       </c>
     </row>
@@ -2434,17 +2434,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>동물복지 유정란 (10구) (520g)</t>
+          <t>[풀무원지구식단] 노랑두부면 (100g)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>8,980</t>
+          <t>2,680</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2462,17 +2462,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>치즈쏙 두부봉 (180g)</t>
+          <t>고소한 콩국수 set (8인분, 콩국물+생소면)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2,280</t>
+          <t>17,980</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2490,17 +2490,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>[풀무원지구식단] 노랑두부면 (100g)</t>
+          <t>새콤달콤 유부초밥 4인분 (330g)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2,680</t>
+          <t>4,680</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2518,22 +2518,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>유기농 미니 순두부 2봉 (200gX2EA)</t>
+          <t>특급식재료 두콩란 (두부, 콩나물, 계란)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2,360</t>
+          <t>14,420</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -2546,12 +2546,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>소고기 메추리알 유정란 장조림 (125g)</t>
+          <t>동물복지 목초 촉촉란 10구 (떡볶이소스) (525g)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3,980</t>
+          <t>9,980</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>무항생제 1+등급 하루에 한 알 (15구) (780g)</t>
+          <t>소가 아삭숙주 (350g)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>8,880</t>
+          <t>1,900</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2602,17 +2602,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>새콤달콤 유부초밥 4인분 (330g)</t>
+          <t>몽글몽글 옛 순두부 (450gx4개)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4,680</t>
+          <t>9,400</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2630,12 +2630,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>동물복지 목초 촉촉란 2구 (떡볶이소스) (105g)</t>
+          <t>해물쏙 두부봉 (180g)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2,800</t>
+          <t>2,280</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2658,12 +2658,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>해물쏙 두부봉 (180g)</t>
+          <t>매일아침 순생나또 8입세트 (396g)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2,280</t>
+          <t>8,000</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2686,22 +2686,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>특급식재료 두콩란 (두부, 콩나물, 계란)</t>
+          <t>냉동 만능유부 (500g)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>14,420</t>
+          <t>7,980</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2742,12 +2742,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>고소한 유기농 두부 찌개용 (290g)</t>
+          <t>동물복지 구운란 (2구)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2,800</t>
+          <t>2,600</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2770,22 +2770,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[산지직송] 갓 낳은 Cage Free 동물복지 유정란 (30입)</t>
+          <t>달콤쫄깃 네모유부초밥 (330g)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>24,900</t>
+          <t>4,680</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>BEST</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2826,12 +2826,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>냉동 만능유부 (500g)</t>
+          <t>유기농 미니 순두부 2봉 (200gX2EA)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>7,980</t>
+          <t>2,360</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2854,17 +2854,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>동물복지 목초 촉촉란 10구 (떡볶이소스) (525g)</t>
+          <t>특등급 국산콩두부 반찬조리용 (340g)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>9,980</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -2882,12 +2882,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>한끼몽글순두부 짬뽕순두부탕 (277g)</t>
+          <t>무항생제 1+등급 하루에 한 알 (15구) (780g)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>3,980</t>
+          <t>8,880</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2910,17 +2910,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>달콤쫄깃 네모유부초밥 (330g)</t>
+          <t>특제대파간장나또 2입 (86.5g)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>4,680</t>
+          <t>3,600</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -2938,12 +2938,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>국산콩 연두부 (250g)</t>
+          <t>동물복지 목초 촉촉란 2구 (떡볶이소스) (105g)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1,950</t>
+          <t>2,800</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2966,17 +2966,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>특등급 국산콩두부 반찬조리용 (340g)</t>
+          <t>새오리알 국산콩 무농약 콩나물 (200g)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>2,400</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>13%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -2994,12 +2994,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>특제대파간장나또 2입 (86.5g)</t>
+          <t>한끼몽글순두부 짬뽕순두부탕 (277g)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>3,600</t>
+          <t>3,980</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3022,12 +3022,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>고소한 유기농 두부 부침용 (290g)</t>
+          <t>고소한 유기농 두부 찌개용 (290g)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2,900</t>
+          <t>2,800</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3050,12 +3050,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>소가 부드러운 찌개두부 (300g)</t>
+          <t>한끼연두부 참깨흑임자 (120gx2EA)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1,600</t>
+          <t>2,780</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3078,12 +3078,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>촉촉란 (2구) (100g)</t>
+          <t>고소한 유기농 두부 부침용 (290g)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2,400</t>
+          <t>2,900</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3106,12 +3106,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>새오리알 국산콩 무농약 콩나물 (200g)</t>
+          <t>국산콩 연두부 (250g)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2,400</t>
+          <t>1,950</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3134,22 +3134,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Cage Free 동물복지 유정란 (10입)</t>
+          <t>실속식재료 두콩달 (두부, 콩나물, 달걀)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>7,900</t>
+          <t>12,480</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>6%</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>BEST</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3162,12 +3162,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>동물복지 구운란 20구 (750g)</t>
+          <t>부드러운 찌개용 두부 (380g)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>13,980</t>
+          <t>4,550</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3190,12 +3190,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>한끼연두부 참깨흑임자 (120gx2EA)</t>
+          <t>Cage Free 동물복지 유정란 (10입)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2,780</t>
+          <t>7,900</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>BEST</t>
         </is>
       </c>
     </row>
@@ -3218,12 +3218,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>부드러운 찌개용 두부 (380g)</t>
+          <t>동물복지 구운란 20구 (750g)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>4,550</t>
+          <t>13,980</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3246,12 +3246,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>[풀무원지구식단] 두부텐더 마일드 (400g)</t>
+          <t>촉촉란 (2구) (100g)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>8,480</t>
+          <t>2,400</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3274,12 +3274,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>매일아침 순생나또 8입세트 (396g)</t>
+          <t>찜&amp;국물요리 전용 숙주 (200g)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>8,000</t>
+          <t>1,680</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3302,17 +3302,17 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>한끼연두부 참깨흑임자 (2팩X5개)</t>
+          <t>촉촉란 (2구x4개)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>12,500</t>
+          <t>8,800</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3330,17 +3330,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>한끼몽글순두부 맑은순두부탕 (280gX4개)</t>
+          <t>몽글몽글 옛 순두부 (450g)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>13,920</t>
+          <t>2,680</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3358,17 +3358,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>촉촉란 (2구x4개)</t>
+          <t>한끼 두부 3개 (부침용2개+찌개용1개, 각 110g) (110gx3EA)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>8,800</t>
+          <t>4,550</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -3386,12 +3386,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>몽글몽글 옛 순두부 (450g)</t>
+          <t>[풀무원지구식단] 두부텐더 마일드 (400g)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2,680</t>
+          <t>8,480</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NEW</t>
         </is>
       </c>
     </row>
@@ -3414,12 +3414,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>한끼 두부 3개 (부침용2개+찌개용1개, 각 110g) (110gx3EA)</t>
+          <t>볶음요리 전용 숙주 (200g)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>4,550</t>
+          <t>1,680</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3442,12 +3442,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>볶음요리 전용 숙주 (200g)</t>
+          <t>부드러운 콩국물 (700g)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1,680</t>
+          <t>3,980</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3470,12 +3470,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>찜&amp;국물요리 전용 숙주 (200g)</t>
+          <t>[식물성지구식단] 한입두부 가라아게 (1kg)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1,680</t>
+          <t>16,500</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3498,17 +3498,17 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>목초달걀 무항생제 1+등급 (10구) (600g)</t>
+          <t>한끼연두부 참깨흑임자 (2팩X5개)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>7,480</t>
+          <t>12,500</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -3526,17 +3526,17 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>부드러운 콩국물 (700g)</t>
+          <t>한끼몽글순두부 맑은순두부탕 (280gX4개)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>3,980</t>
+          <t>13,920</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -3554,12 +3554,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>[생산직송] 순생나또 총 48팩 (2팩x24개)</t>
+          <t>소가 부드러운 찌개두부 (300g)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>49,800</t>
+          <t>1,600</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3582,12 +3582,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>김참깨 순생나또 2입 (43.5gx2입)</t>
+          <t>[생산직송] 순생나또 총 48팩 (2팩x24개)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>3,200</t>
+          <t>49,800</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3610,12 +3610,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>[식물성지구식단] 한입두부 가라아게 (1kg)</t>
+          <t>김참깨 순생나또 2입 (43.5gx2입)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>16,500</t>
+          <t>3,200</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3638,17 +3638,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>실속식재료 두콩달 (두부, 콩나물, 달걀)</t>
+          <t>깐 메추리알 유정란 (450g)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>12,480</t>
+          <t>8,780</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -3666,12 +3666,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>두부면 얇은면 + 단단한 부침용 두부</t>
+          <t>목초달걀 무항생제 1+등급 (10구) (600g)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>7,550</t>
+          <t>7,480</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3694,12 +3694,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Cage Free 동물복지 백색 유정란 (20입)</t>
+          <t>[산지직송] 동물복지인증 유정란으로 만든 구운계란 30입 (10입x3개)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>15,900</t>
+          <t>28,900</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3722,12 +3722,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>유기농 미니 순두부 (200g)</t>
+          <t>두부면 얇은면 + 단단한 부침용 두부</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>1,180</t>
+          <t>7,550</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3750,12 +3750,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>깐 메추리알 유정란 (450g)</t>
+          <t>Cage Free 동물복지 백색 유정란 (20입)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>8,780</t>
+          <t>15,900</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3765,7 +3765,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>BEST</t>
         </is>
       </c>
     </row>
@@ -3778,12 +3778,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>브레드이발소 고소한입 꼬마유부초밥 (149.7g)</t>
+          <t>유기농 미니 순두부 (200g)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>3,980</t>
+          <t>1,180</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3862,12 +3862,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>[산지직송] 동물복지인증 유정란으로 만든 구운계란 30입 (10입x3개)</t>
+          <t>메추리알 유정란 장조림 (170g)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>28,900</t>
+          <t>3,980</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>BEST</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3890,12 +3890,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Cage Free 동물복지 백색 유정란 (10입)</t>
+          <t>[식물성지구식단]new 이지쿡 다용도 국산 콩두부 (1kg)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>8,500</t>
+          <t>13,900</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>BEST</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3918,12 +3918,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>메추리알 유정란 장조림 (170g)</t>
+          <t>메추리알 영양란 (450g)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>3,980</t>
+          <t>8,680</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3946,12 +3946,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>[식물성지구식단]new 이지쿡 다용도 국산 콩두부 (1kg)</t>
+          <t>메추리알 영양란 (360g)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>13,900</t>
+          <t>6,980</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3974,12 +3974,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>메추리알 영양란 (450g)</t>
+          <t>브레드이발소 고소한입 꼬마유부초밥 (149.7g)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>8,680</t>
+          <t>3,980</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4058,12 +4058,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>메추리알 영양란 (360g)</t>
+          <t>고단백 수제두부 (200g)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>6,980</t>
+          <t>3,480</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4114,22 +4114,22 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>고단백 수제두부 (200g)</t>
+          <t>새콤달콤 가족나들이 유부초밥 3~4인분 (280g)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>3,480</t>
+          <t>3,580</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>14%</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>BEST</t>
         </is>
       </c>
     </row>
@@ -4142,22 +4142,22 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>새콤달콤 가족나들이 유부초밥 3~4인분 (280g)</t>
+          <t>동물복지 정성란 30구 (1.56kg)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>3,580</t>
+          <t>18,900</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>14%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>BEST</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4170,12 +4170,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>동물복지 정성란 30구 (1.56kg)</t>
+          <t>Cage Free 동물복지 백색 유정란 (10입)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>18,900</t>
+          <t>8,500</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
